--- a/海淀/牡丹园东里/新建 Microsoft Office Excel 工作表.xlsx
+++ b/海淀/牡丹园东里/新建 Microsoft Office Excel 工作表.xlsx
@@ -3145,24 +3145,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="85808256"/>
-        <c:axId val="85809792"/>
+        <c:axId val="87700224"/>
+        <c:axId val="87701760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85808256"/>
+        <c:axId val="87700224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85809792"/>
+        <c:crossAx val="87701760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85809792"/>
+        <c:axId val="87701760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,7 +3170,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85808256"/>
+        <c:crossAx val="87700224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3183,7 +3183,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4607,24 +4607,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110358528"/>
-        <c:axId val="110361216"/>
+        <c:axId val="87730432"/>
+        <c:axId val="90439680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110358528"/>
+        <c:axId val="87730432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110361216"/>
+        <c:crossAx val="90439680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110361216"/>
+        <c:axId val="90439680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4632,7 +4632,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110358528"/>
+        <c:crossAx val="87730432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4645,7 +4645,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4691,10 +4691,10 @@
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
